--- a/nmadb/501199.xlsx
+++ b/nmadb/501199.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="135" windowWidth="19440" windowHeight="10485"/>
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -112,17 +112,17 @@
     <t>n</t>
   </si>
   <si>
-    <t>trt</t>
-  </si>
-  <si>
     <t>Harmful</t>
+  </si>
+  <si>
+    <t>t</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -208,7 +208,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -282,7 +282,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -317,7 +316,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -493,14 +491,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="4"/>
     <col min="2" max="2" width="25.140625" style="4" bestFit="1" customWidth="1"/>
@@ -509,7 +507,7 @@
     <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
         <v>26</v>
       </c>
@@ -517,7 +515,7 @@
         <v>29</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>30</v>
@@ -526,7 +524,7 @@
         <v>31</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>23</v>
@@ -535,7 +533,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="4">
         <v>1</v>
       </c>
@@ -552,7 +550,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="4">
         <v>1</v>
       </c>
@@ -576,7 +574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -600,7 +598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="4">
         <v>2</v>
       </c>
@@ -623,7 +621,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="4">
         <v>3</v>
       </c>
@@ -646,7 +644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="4">
         <v>3</v>
       </c>
@@ -669,7 +667,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="4">
         <v>4</v>
       </c>
@@ -692,7 +690,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="4">
         <v>4</v>
       </c>
@@ -715,7 +713,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="4">
         <v>5</v>
       </c>
@@ -738,7 +736,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="4">
         <v>5</v>
       </c>
@@ -761,7 +759,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="4">
         <v>6</v>
       </c>
@@ -778,7 +776,7 @@
         <v>3335</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="4">
         <v>6</v>
       </c>
@@ -795,7 +793,7 @@
         <v>3371</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="4">
         <v>7</v>
       </c>
@@ -812,7 +810,7 @@
         <v>2283</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="4">
         <v>7</v>
       </c>
@@ -829,7 +827,7 @@
         <v>2293</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="4">
         <v>8</v>
       </c>
@@ -846,7 +844,7 @@
         <v>12091</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="4">
         <v>8</v>
       </c>
@@ -863,7 +861,7 @@
         <v>6022</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" s="4">
         <v>9</v>
       </c>
@@ -880,7 +878,7 @@
         <v>2808</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" s="4">
         <v>9</v>
       </c>
@@ -897,7 +895,7 @@
         <v>2791</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" s="4">
         <v>10</v>
       </c>
@@ -914,7 +912,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="4">
         <v>10</v>
       </c>
@@ -931,7 +929,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" s="4">
         <v>11</v>
       </c>
@@ -948,7 +946,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" s="4">
         <v>11</v>
       </c>
@@ -965,7 +963,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" s="4">
         <v>12</v>
       </c>
@@ -982,7 +980,7 @@
         <v>9120</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" s="4">
         <v>12</v>
       </c>
@@ -999,7 +997,7 @@
         <v>9081</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5">
       <c r="A26" s="4">
         <v>13</v>
       </c>
@@ -1016,7 +1014,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" s="4">
         <v>13</v>
       </c>
@@ -1033,7 +1031,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="4">
         <v>14</v>
       </c>
@@ -1050,7 +1048,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="A29" s="4">
         <v>14</v>
       </c>
@@ -1067,7 +1065,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" s="4">
         <v>14</v>
       </c>
@@ -1084,7 +1082,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" s="4">
         <v>15</v>
       </c>
@@ -1101,7 +1099,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" s="4">
         <v>15</v>
       </c>
@@ -1118,7 +1116,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5">
       <c r="A33" s="4">
         <v>15</v>
       </c>
@@ -1135,7 +1133,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5">
       <c r="A34" s="4">
         <v>16</v>
       </c>
@@ -1152,7 +1150,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5">
       <c r="A35" s="4">
         <v>16</v>
       </c>
@@ -1169,7 +1167,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5">
       <c r="A36" s="4">
         <v>17</v>
       </c>
@@ -1186,7 +1184,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5">
       <c r="A37" s="4">
         <v>17</v>
       </c>

--- a/nmadb/501199.xlsx
+++ b/nmadb/501199.xlsx
@@ -495,13 +495,13 @@
   <dimension ref="A1:I37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="4"/>
-    <col min="2" max="2" width="25.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="4"/>
     <col min="3" max="3" width="9.5703125" style="4" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="4"/>
     <col min="9" max="9" width="18.85546875" bestFit="1" customWidth="1"/>
@@ -509,10 +509,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>29</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>33</v>
@@ -534,11 +534,11 @@
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="4">
+      <c r="A2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4">
         <v>1</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="C2" s="4">
         <v>2</v>
@@ -551,11 +551,11 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="4">
+      <c r="A3" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="4">
         <v>1</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>19</v>
       </c>
       <c r="C3" s="4">
         <v>6</v>
@@ -575,11 +575,11 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="B4" s="4">
+        <v>2</v>
       </c>
       <c r="C4" s="4">
         <v>9</v>
@@ -599,11 +599,11 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="4">
-        <v>2</v>
-      </c>
-      <c r="B5" s="4" t="s">
+      <c r="A5" s="4" t="s">
         <v>10</v>
+      </c>
+      <c r="B5" s="4">
+        <v>2</v>
       </c>
       <c r="C5" s="4">
         <v>6</v>
@@ -622,11 +622,11 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="4">
+      <c r="A6" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="4">
         <v>3</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="C6" s="4">
         <v>2</v>
@@ -645,11 +645,11 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="4">
+      <c r="A7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="4">
         <v>3</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="C7" s="4">
         <v>9</v>
@@ -668,11 +668,11 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="4">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4">
         <v>4</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="C8" s="4">
         <v>2</v>
@@ -691,11 +691,11 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="4">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="4">
         <v>4</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>12</v>
       </c>
       <c r="C9" s="4">
         <v>9</v>
@@ -714,11 +714,11 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="4">
+      <c r="A10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4">
         <v>5</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="C10" s="4">
         <v>3</v>
@@ -737,11 +737,11 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="4">
+      <c r="A11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="4">
         <v>5</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
       </c>
       <c r="C11" s="4">
         <v>2</v>
@@ -760,11 +760,11 @@
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="4">
+      <c r="A12" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="4">
         <v>6</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="C12" s="4">
         <v>3</v>
@@ -777,11 +777,11 @@
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="4">
+      <c r="A13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4">
         <v>6</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>4</v>
       </c>
       <c r="C13" s="4">
         <v>9</v>
@@ -794,10 +794,10 @@
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="4">
+      <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="4">
         <v>7</v>
       </c>
       <c r="C14" s="4">
@@ -811,10 +811,10 @@
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="A15" s="4">
+      <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="4">
         <v>7</v>
       </c>
       <c r="C15" s="4">
@@ -828,11 +828,11 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="A16" s="4">
+      <c r="A16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="4">
         <v>8</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="C16" s="4">
         <v>4</v>
@@ -845,11 +845,11 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="4">
+      <c r="A17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="4">
         <v>8</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="C17" s="4">
         <v>9</v>
@@ -862,11 +862,11 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="4">
-        <v>9</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="B18" s="4">
+        <v>9</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
@@ -879,11 +879,11 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="4">
-        <v>9</v>
-      </c>
-      <c r="B19" s="4" t="s">
+      <c r="A19" s="4" t="s">
         <v>14</v>
+      </c>
+      <c r="B19" s="4">
+        <v>9</v>
       </c>
       <c r="C19" s="4">
         <v>2</v>
@@ -896,11 +896,11 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="4">
+      <c r="A20" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B20" s="4">
         <v>10</v>
-      </c>
-      <c r="B20" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="C20" s="4">
         <v>2</v>
@@ -913,11 +913,11 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="4">
+      <c r="A21" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="4">
         <v>10</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>9</v>
       </c>
       <c r="C21" s="4">
         <v>6</v>
@@ -930,11 +930,11 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="4">
+      <c r="A22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22" s="4">
         <v>11</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="C22" s="4">
         <v>9</v>
@@ -947,11 +947,11 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="4">
+      <c r="A23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4">
         <v>11</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>20</v>
       </c>
       <c r="C23" s="4">
         <v>6</v>
@@ -964,11 +964,11 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="4">
+      <c r="A24" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B24" s="4">
         <v>12</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="C24" s="4">
         <v>1</v>
@@ -981,11 +981,11 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="4">
+      <c r="A25" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="4">
         <v>12</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="C25" s="4">
         <v>9</v>
@@ -998,10 +998,10 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="4">
+      <c r="A26" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="4">
         <v>13</v>
       </c>
       <c r="C26" s="4">
@@ -1015,10 +1015,10 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="4">
+      <c r="A27" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="4">
         <v>13</v>
       </c>
       <c r="C27" s="4">
@@ -1032,11 +1032,11 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="4">
+      <c r="A28" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="4">
         <v>14</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="C28" s="4">
         <v>9</v>
@@ -1049,11 +1049,11 @@
       </c>
     </row>
     <row r="29" spans="1:5">
-      <c r="A29" s="4">
+      <c r="A29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="4">
         <v>14</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="C29" s="4">
         <v>2</v>
@@ -1066,11 +1066,11 @@
       </c>
     </row>
     <row r="30" spans="1:5">
-      <c r="A30" s="4">
+      <c r="A30" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B30" s="4">
         <v>14</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>18</v>
       </c>
       <c r="C30" s="4">
         <v>6</v>
@@ -1083,11 +1083,11 @@
       </c>
     </row>
     <row r="31" spans="1:5">
-      <c r="A31" s="4">
+      <c r="A31" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" s="4">
         <v>15</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="C31" s="4">
         <v>7</v>
@@ -1100,11 +1100,11 @@
       </c>
     </row>
     <row r="32" spans="1:5">
-      <c r="A32" s="4">
+      <c r="A32" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" s="4">
         <v>15</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="C32" s="4">
         <v>9</v>
@@ -1117,11 +1117,11 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="4">
+      <c r="A33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B33" s="4">
         <v>15</v>
-      </c>
-      <c r="B33" s="4" t="s">
-        <v>5</v>
       </c>
       <c r="C33" s="4">
         <v>8</v>
@@ -1134,11 +1134,11 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="4">
+      <c r="A34" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34" s="4">
         <v>16</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="C34" s="4">
         <v>9</v>
@@ -1151,11 +1151,11 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="4">
+      <c r="A35" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B35" s="4">
         <v>16</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>6</v>
       </c>
       <c r="C35" s="4">
         <v>8</v>
@@ -1168,11 +1168,11 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="4">
+      <c r="A36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B36" s="4">
         <v>17</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="C36" s="4">
         <v>2</v>
@@ -1185,11 +1185,11 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="4">
+      <c r="A37" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B37" s="4">
         <v>17</v>
-      </c>
-      <c r="B37" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="C37" s="4">
         <v>6</v>
